--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.7526129878138</v>
+        <v>113.3518946666667</v>
       </c>
       <c r="H2">
-        <v>39.7526129878138</v>
+        <v>340.055684</v>
       </c>
       <c r="I2">
-        <v>0.1441317291633331</v>
+        <v>0.323929285314747</v>
       </c>
       <c r="J2">
-        <v>0.1441317291633331</v>
+        <v>0.323929285314747</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N2">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q2">
-        <v>3243.761351781121</v>
+        <v>13866.21508123088</v>
       </c>
       <c r="R2">
-        <v>3243.761351781121</v>
+        <v>124795.935731078</v>
       </c>
       <c r="S2">
-        <v>0.1399247577159997</v>
+        <v>0.3169121026617021</v>
       </c>
       <c r="T2">
-        <v>0.1399247577159997</v>
+        <v>0.316912102661702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.7526129878138</v>
+        <v>113.3518946666667</v>
       </c>
       <c r="H3">
-        <v>39.7526129878138</v>
+        <v>340.055684</v>
       </c>
       <c r="I3">
-        <v>0.1441317291633331</v>
+        <v>0.323929285314747</v>
       </c>
       <c r="J3">
-        <v>0.1441317291633331</v>
+        <v>0.323929285314747</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N3">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q3">
-        <v>10.00663170653769</v>
+        <v>43.79433575169423</v>
       </c>
       <c r="R3">
-        <v>10.00663170653769</v>
+        <v>394.1490217652481</v>
       </c>
       <c r="S3">
-        <v>0.0004316518279995235</v>
+        <v>0.001000918776063724</v>
       </c>
       <c r="T3">
-        <v>0.0004316518279995235</v>
+        <v>0.001000918776063724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.7526129878138</v>
+        <v>113.3518946666667</v>
       </c>
       <c r="H4">
-        <v>39.7526129878138</v>
+        <v>340.055684</v>
       </c>
       <c r="I4">
-        <v>0.1441317291633331</v>
+        <v>0.323929285314747</v>
       </c>
       <c r="J4">
-        <v>0.1441317291633331</v>
+        <v>0.323929285314747</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N4">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q4">
-        <v>87.52015062746798</v>
+        <v>263.2364248730321</v>
       </c>
       <c r="R4">
-        <v>87.52015062746798</v>
+        <v>2369.127823857289</v>
       </c>
       <c r="S4">
-        <v>0.003775319619333881</v>
+        <v>0.006016263876981233</v>
       </c>
       <c r="T4">
-        <v>0.003775319619333881</v>
+        <v>0.006016263876981232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>183.953901424221</v>
+        <v>183.9871776666667</v>
       </c>
       <c r="H5">
-        <v>183.953901424221</v>
+        <v>551.961533</v>
       </c>
       <c r="I5">
-        <v>0.666964808243978</v>
+        <v>0.5257859618835901</v>
       </c>
       <c r="J5">
-        <v>0.666964808243978</v>
+        <v>0.5257859618835899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N5">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q5">
-        <v>15010.39833864913</v>
+        <v>22506.95310578581</v>
       </c>
       <c r="R5">
-        <v>15010.39833864913</v>
+        <v>202562.5779520723</v>
       </c>
       <c r="S5">
-        <v>0.6474971870550382</v>
+        <v>0.5143960187749911</v>
       </c>
       <c r="T5">
-        <v>0.6474971870550382</v>
+        <v>0.5143960187749911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.953901424221</v>
+        <v>183.9871776666667</v>
       </c>
       <c r="H6">
-        <v>183.953901424221</v>
+        <v>551.961533</v>
       </c>
       <c r="I6">
-        <v>0.666964808243978</v>
+        <v>0.5257859618835901</v>
       </c>
       <c r="J6">
-        <v>0.666964808243978</v>
+        <v>0.5257859618835899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N6">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q6">
-        <v>46.30535716223746</v>
+        <v>71.08479533081956</v>
       </c>
       <c r="R6">
-        <v>46.30535716223746</v>
+        <v>639.7631579773761</v>
       </c>
       <c r="S6">
-        <v>0.001997454553283089</v>
+        <v>0.001624641751450968</v>
       </c>
       <c r="T6">
-        <v>0.001997454553283089</v>
+        <v>0.001624641751450968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.953901424221</v>
+        <v>183.9871776666667</v>
       </c>
       <c r="H7">
-        <v>183.953901424221</v>
+        <v>551.961533</v>
       </c>
       <c r="I7">
-        <v>0.666964808243978</v>
+        <v>0.5257859618835901</v>
       </c>
       <c r="J7">
-        <v>0.666964808243978</v>
+        <v>0.5257859618835899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N7">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q7">
-        <v>404.996601508776</v>
+        <v>427.272318772234</v>
       </c>
       <c r="R7">
-        <v>404.996601508776</v>
+        <v>3845.450868950107</v>
       </c>
       <c r="S7">
-        <v>0.01747016663565656</v>
+        <v>0.00976530135714798</v>
       </c>
       <c r="T7">
-        <v>0.01747016663565656</v>
+        <v>0.009765301357147978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.1009931962677</v>
+        <v>52.588828</v>
       </c>
       <c r="H8">
-        <v>52.1009931962677</v>
+        <v>157.766484</v>
       </c>
       <c r="I8">
-        <v>0.1889034625926888</v>
+        <v>0.1502847528016631</v>
       </c>
       <c r="J8">
-        <v>0.1889034625926888</v>
+        <v>0.1502847528016631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N8">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q8">
-        <v>4251.373064992543</v>
+        <v>6433.134638483415</v>
       </c>
       <c r="R8">
-        <v>4251.373064992543</v>
+        <v>57898.21174635074</v>
       </c>
       <c r="S8">
-        <v>0.1833896768493062</v>
+        <v>0.1470291794151683</v>
       </c>
       <c r="T8">
-        <v>0.1833896768493062</v>
+        <v>0.1470291794151682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.1009931962677</v>
+        <v>52.588828</v>
       </c>
       <c r="H9">
-        <v>52.1009931962677</v>
+        <v>157.766484</v>
       </c>
       <c r="I9">
-        <v>0.1889034625926888</v>
+        <v>0.1502847528016631</v>
       </c>
       <c r="J9">
-        <v>0.1889034625926888</v>
+        <v>0.1502847528016631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N9">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q9">
-        <v>13.11499826740191</v>
+        <v>20.31807934920534</v>
       </c>
       <c r="R9">
-        <v>13.11499826740191</v>
+        <v>182.862714142848</v>
       </c>
       <c r="S9">
-        <v>0.0005657361180421992</v>
+        <v>0.0004643693474306318</v>
       </c>
       <c r="T9">
-        <v>0.0005657361180421992</v>
+        <v>0.0004643693474306316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.1009931962677</v>
+        <v>52.588828</v>
       </c>
       <c r="H10">
-        <v>52.1009931962677</v>
+        <v>157.766484</v>
       </c>
       <c r="I10">
-        <v>0.1889034625926888</v>
+        <v>0.1502847528016631</v>
       </c>
       <c r="J10">
-        <v>0.1889034625926888</v>
+        <v>0.1502847528016631</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N10">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q10">
-        <v>114.7065923383671</v>
+        <v>122.126719731432</v>
       </c>
       <c r="R10">
-        <v>114.7065923383671</v>
+        <v>1099.140477582888</v>
       </c>
       <c r="S10">
-        <v>0.004948049625340312</v>
+        <v>0.002791204039064195</v>
       </c>
       <c r="T10">
-        <v>0.004948049625340312</v>
+        <v>0.002791204039064194</v>
       </c>
     </row>
   </sheetData>
